--- a/game_config/challenge_config.xlsx
+++ b/game_config/challenge_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21345" windowHeight="12270"/>
+    <workbookView windowWidth="20580" windowHeight="12270"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -387,7 +387,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="113">
   <si>
     <t>关卡模式配置表</t>
   </si>
@@ -417,17 +417,327 @@
   </si>
   <si>
     <t>sec</t>
+  </si>
+  <si>
+    <t>star3</t>
+  </si>
+  <si>
+    <t>star2</t>
+  </si>
+  <si>
+    <t>star1</t>
+  </si>
+  <si>
+    <t>1,3</t>
+  </si>
+  <si>
+    <t>1,4</t>
+  </si>
+  <si>
+    <t>1,6</t>
+  </si>
+  <si>
+    <t>7,10</t>
+  </si>
+  <si>
+    <t>11,12</t>
+  </si>
+  <si>
+    <t>1,10</t>
+  </si>
+  <si>
+    <t>11,16</t>
+  </si>
+  <si>
+    <t>17,20</t>
+  </si>
+  <si>
+    <t>1,17</t>
+  </si>
+  <si>
+    <t>18,24</t>
+  </si>
+  <si>
+    <t>25,30</t>
+  </si>
+  <si>
+    <t>1,15</t>
+  </si>
+  <si>
+    <t>16,24</t>
+  </si>
+  <si>
+    <t>11,17</t>
+  </si>
+  <si>
+    <t>18,22</t>
+  </si>
+  <si>
+    <t>1,12</t>
+  </si>
+  <si>
+    <t>13,19</t>
+  </si>
+  <si>
+    <t>20,25</t>
+  </si>
+  <si>
+    <t>1,20</t>
+  </si>
+  <si>
+    <t>21,32</t>
+  </si>
+  <si>
+    <t>33,40</t>
+  </si>
+  <si>
+    <t>11,18</t>
+  </si>
+  <si>
+    <t>19,22</t>
+  </si>
+  <si>
+    <t>1,21</t>
+  </si>
+  <si>
+    <t>35,42</t>
+  </si>
+  <si>
+    <t>22,35</t>
+  </si>
+  <si>
+    <t>36,40</t>
+  </si>
+  <si>
+    <t>1,14</t>
+  </si>
+  <si>
+    <t>15,19</t>
+  </si>
+  <si>
+    <t>20,24</t>
+  </si>
+  <si>
+    <t>21,30</t>
+  </si>
+  <si>
+    <t>31,36</t>
+  </si>
+  <si>
+    <t>1,35</t>
+  </si>
+  <si>
+    <t>36,50</t>
+  </si>
+  <si>
+    <t>51,60</t>
+  </si>
+  <si>
+    <t>1,46</t>
+  </si>
+  <si>
+    <t>47,60</t>
+  </si>
+  <si>
+    <t>61,70</t>
+  </si>
+  <si>
+    <t>1,56</t>
+  </si>
+  <si>
+    <t>57,70</t>
+  </si>
+  <si>
+    <t>71,80</t>
+  </si>
+  <si>
+    <t>1,23</t>
+  </si>
+  <si>
+    <t>24,37</t>
+  </si>
+  <si>
+    <t>38,43</t>
+  </si>
+  <si>
+    <t>1,18</t>
+  </si>
+  <si>
+    <t>19,28</t>
+  </si>
+  <si>
+    <t>29,34</t>
+  </si>
+  <si>
+    <t>1,37</t>
+  </si>
+  <si>
+    <t>38,52</t>
+  </si>
+  <si>
+    <t>53,60</t>
+  </si>
+  <si>
+    <t>1,47</t>
+  </si>
+  <si>
+    <t>48,62</t>
+  </si>
+  <si>
+    <t>63,70</t>
+  </si>
+  <si>
+    <t>1,39</t>
+  </si>
+  <si>
+    <t>40,55</t>
+  </si>
+  <si>
+    <t>56,65</t>
+  </si>
+  <si>
+    <t>57,69</t>
+  </si>
+  <si>
+    <t>70,80</t>
+  </si>
+  <si>
+    <t>1,57</t>
+  </si>
+  <si>
+    <t>58,78</t>
+  </si>
+  <si>
+    <t>79,85</t>
+  </si>
+  <si>
+    <t>1,49</t>
+  </si>
+  <si>
+    <t>50,67</t>
+  </si>
+  <si>
+    <t>68,75</t>
+  </si>
+  <si>
+    <t>1,50</t>
+  </si>
+  <si>
+    <t>51,64</t>
+  </si>
+  <si>
+    <t>65,80</t>
+  </si>
+  <si>
+    <t>1,53</t>
+  </si>
+  <si>
+    <t>54,75</t>
+  </si>
+  <si>
+    <t>76,85</t>
+  </si>
+  <si>
+    <t>1,60</t>
+  </si>
+  <si>
+    <t>61,81</t>
+  </si>
+  <si>
+    <t>82,90</t>
+  </si>
+  <si>
+    <t>51,65</t>
+  </si>
+  <si>
+    <t>67,80</t>
+  </si>
+  <si>
+    <t>54,70</t>
+  </si>
+  <si>
+    <t>71,85</t>
+  </si>
+  <si>
+    <t>61,80</t>
+  </si>
+  <si>
+    <t>81,90</t>
+  </si>
+  <si>
+    <t>1,64</t>
+  </si>
+  <si>
+    <t>65,85</t>
+  </si>
+  <si>
+    <t>86,98</t>
+  </si>
+  <si>
+    <t>47,67</t>
+  </si>
+  <si>
+    <t>1,62</t>
+  </si>
+  <si>
+    <t>63,83</t>
+  </si>
+  <si>
+    <t>84,95</t>
+  </si>
+  <si>
+    <t>1,61</t>
+  </si>
+  <si>
+    <t>62,81</t>
+  </si>
+  <si>
+    <t>82,92</t>
+  </si>
+  <si>
+    <t>1,70</t>
+  </si>
+  <si>
+    <t>71,87</t>
+  </si>
+  <si>
+    <t>84,98</t>
+  </si>
+  <si>
+    <t>1,77</t>
+  </si>
+  <si>
+    <t>78,89</t>
+  </si>
+  <si>
+    <t>1,88</t>
+  </si>
+  <si>
+    <t>89,109</t>
+  </si>
+  <si>
+    <t>1,83</t>
+  </si>
+  <si>
+    <t>84,103</t>
+  </si>
+  <si>
+    <t>1,86</t>
+  </si>
+  <si>
+    <t>87,103</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -445,10 +755,33 @@
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="11.25"/>
+      <sz val="11"/>
       <color rgb="FF28323C"/>
-      <name val="Arial"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -458,38 +791,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -502,39 +806,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -549,16 +822,32 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -571,9 +860,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -587,9 +898,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -615,13 +926,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,25 +950,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -669,7 +998,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -681,43 +1076,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -729,67 +1094,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -811,20 +1122,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -844,20 +1144,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -877,17 +1174,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -914,10 +1225,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -926,34 +1237,37 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -962,101 +1276,98 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1064,9 +1375,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1388,34 +1717,38 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K122"/>
+  <dimension ref="A1:M122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I122" sqref="A107:I122"/>
+      <selection pane="bottomLeft" activeCell="F126" sqref="F126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="10" max="11" width="12.625"/>
-    <col min="13" max="13" width="12.625"/>
+    <col min="10" max="10" width="13.75" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12.625" style="2"/>
+    <col min="12" max="12" width="13.375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="12.625" style="2"/>
+    <col min="14" max="14" width="11.625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="11.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="41.1" customHeight="1" spans="1:9">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" ht="14.25" spans="1:11">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1443,9 +1776,18 @@
       <c r="I2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1473,8 +1815,17 @@
       <c r="I3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" s="2">
+        <v>3</v>
+      </c>
+      <c r="K3" s="2">
+        <v>2</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1502,8 +1853,17 @@
       <c r="I4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="2">
+        <v>4</v>
+      </c>
+      <c r="L4" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1531,8 +1891,17 @@
       <c r="I5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="2">
+        <v>5</v>
+      </c>
+      <c r="L5" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1560,8 +1929,17 @@
       <c r="I6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="2">
+        <v>5</v>
+      </c>
+      <c r="L6" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1589,8 +1967,17 @@
       <c r="I7">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1618,8 +2005,17 @@
       <c r="I8">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1647,8 +2043,17 @@
       <c r="I9">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1676,8 +2081,17 @@
       <c r="I10">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1705,8 +2119,17 @@
       <c r="I11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1734,8 +2157,17 @@
       <c r="I12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1763,8 +2195,17 @@
       <c r="I13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1792,8 +2233,17 @@
       <c r="I14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1821,8 +2271,17 @@
       <c r="I15">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1850,8 +2309,17 @@
       <c r="I16">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1879,8 +2347,17 @@
       <c r="I17">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1908,8 +2385,17 @@
       <c r="I18">
         <v>25</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1937,8 +2423,17 @@
       <c r="I19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1966,8 +2461,17 @@
       <c r="I20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1995,8 +2499,17 @@
       <c r="I21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2024,8 +2537,17 @@
       <c r="I22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K22" s="2">
+        <v>22.34</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2053,8 +2575,17 @@
       <c r="I23">
         <v>40</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2082,8 +2613,17 @@
       <c r="I24">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2111,8 +2651,17 @@
       <c r="I25">
         <v>36</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2140,8 +2689,17 @@
       <c r="I26">
         <v>40</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2169,8 +2727,17 @@
       <c r="I27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2198,8 +2765,17 @@
       <c r="I28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="J28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2227,8 +2803,17 @@
       <c r="I29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="J29" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2256,8 +2841,17 @@
       <c r="I30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="J30" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2285,8 +2879,17 @@
       <c r="I31">
         <v>43</v>
       </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="J31" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2314,8 +2917,17 @@
       <c r="I32">
         <v>34</v>
       </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="J32" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33">
         <v>31</v>
       </c>
@@ -2343,8 +2955,17 @@
       <c r="I33">
         <v>60</v>
       </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="J33" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34">
         <v>32</v>
       </c>
@@ -2372,8 +2993,17 @@
       <c r="I34">
         <v>70</v>
       </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="J34" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35">
         <v>33</v>
       </c>
@@ -2401,8 +3031,17 @@
       <c r="I35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="J35" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36">
         <v>34</v>
       </c>
@@ -2430,8 +3069,17 @@
       <c r="I36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="J36" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37">
         <v>35</v>
       </c>
@@ -2459,8 +3107,17 @@
       <c r="I37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="J37" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2488,8 +3145,17 @@
       <c r="I38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="J38" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39">
         <v>37</v>
       </c>
@@ -2517,8 +3183,17 @@
       <c r="I39">
         <v>70</v>
       </c>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="J39" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40">
         <v>38</v>
       </c>
@@ -2546,8 +3221,17 @@
       <c r="I40">
         <v>70</v>
       </c>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="J40" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41">
         <v>39</v>
       </c>
@@ -2575,8 +3259,17 @@
       <c r="I41">
         <v>70</v>
       </c>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="J41" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42">
         <v>40</v>
       </c>
@@ -2604,8 +3297,17 @@
       <c r="I42">
         <v>70</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="J42" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43">
         <v>41</v>
       </c>
@@ -2633,8 +3335,17 @@
       <c r="I43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:9">
+      <c r="J43" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44">
         <v>42</v>
       </c>
@@ -2662,8 +3373,17 @@
       <c r="I44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="J44" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45">
         <v>43</v>
       </c>
@@ -2691,8 +3411,17 @@
       <c r="I45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="J45" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46">
         <v>44</v>
       </c>
@@ -2720,8 +3449,17 @@
       <c r="I46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:9">
+      <c r="J46" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47">
         <v>45</v>
       </c>
@@ -2749,8 +3487,17 @@
       <c r="I47">
         <v>70</v>
       </c>
-    </row>
-    <row r="48" spans="1:9">
+      <c r="J47" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48">
         <v>46</v>
       </c>
@@ -2778,8 +3525,17 @@
       <c r="I48">
         <v>75</v>
       </c>
-    </row>
-    <row r="49" spans="1:9">
+      <c r="J48" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49">
         <v>47</v>
       </c>
@@ -2807,8 +3563,17 @@
       <c r="I49">
         <v>75</v>
       </c>
-    </row>
-    <row r="50" spans="1:9">
+      <c r="J49" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50">
         <v>48</v>
       </c>
@@ -2836,8 +3601,17 @@
       <c r="I50">
         <v>75</v>
       </c>
-    </row>
-    <row r="51" spans="1:9">
+      <c r="J50" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51">
         <v>49</v>
       </c>
@@ -2865,8 +3639,17 @@
       <c r="I51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:9">
+      <c r="J51" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52">
         <v>50</v>
       </c>
@@ -2894,8 +3677,17 @@
       <c r="I52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:9">
+      <c r="J52" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53">
         <v>51</v>
       </c>
@@ -2923,8 +3715,17 @@
       <c r="I53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:9">
+      <c r="J53" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54">
         <v>52</v>
       </c>
@@ -2952,8 +3753,17 @@
       <c r="I54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:9">
+      <c r="J54" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55">
         <v>53</v>
       </c>
@@ -2981,8 +3791,17 @@
       <c r="I55">
         <v>75</v>
       </c>
-    </row>
-    <row r="56" spans="1:9">
+      <c r="J55" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56">
         <v>54</v>
       </c>
@@ -3010,8 +3829,17 @@
       <c r="I56">
         <v>80</v>
       </c>
-    </row>
-    <row r="57" spans="1:9">
+      <c r="J56" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57">
         <v>55</v>
       </c>
@@ -3039,8 +3867,17 @@
       <c r="I57">
         <v>85</v>
       </c>
-    </row>
-    <row r="58" spans="1:9">
+      <c r="J57" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58">
         <v>56</v>
       </c>
@@ -3068,8 +3905,17 @@
       <c r="I58">
         <v>90</v>
       </c>
-    </row>
-    <row r="59" spans="1:9">
+      <c r="J58" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59">
         <v>57</v>
       </c>
@@ -3097,8 +3943,17 @@
       <c r="I59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:9">
+      <c r="J59" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60">
         <v>58</v>
       </c>
@@ -3126,8 +3981,17 @@
       <c r="I60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:9">
+      <c r="J60" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61">
         <v>59</v>
       </c>
@@ -3155,8 +4019,17 @@
       <c r="I61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:9">
+      <c r="J61" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62">
         <v>60</v>
       </c>
@@ -3184,8 +4057,17 @@
       <c r="I62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:9">
+      <c r="J62" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63">
         <v>61</v>
       </c>
@@ -3213,8 +4095,17 @@
       <c r="I63">
         <v>75</v>
       </c>
-    </row>
-    <row r="64" spans="1:9">
+      <c r="J63" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64">
         <v>62</v>
       </c>
@@ -3242,8 +4133,17 @@
       <c r="I64">
         <v>85</v>
       </c>
-    </row>
-    <row r="65" spans="1:9">
+      <c r="J64" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65">
         <v>63</v>
       </c>
@@ -3271,8 +4171,17 @@
       <c r="I65">
         <v>85</v>
       </c>
-    </row>
-    <row r="66" spans="1:9">
+      <c r="J65" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66">
         <v>64</v>
       </c>
@@ -3300,8 +4209,17 @@
       <c r="I66">
         <v>90</v>
       </c>
-    </row>
-    <row r="67" spans="1:9">
+      <c r="J66" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67">
         <v>65</v>
       </c>
@@ -3329,8 +4247,17 @@
       <c r="I67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:9">
+      <c r="J67" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68">
         <v>66</v>
       </c>
@@ -3358,8 +4285,17 @@
       <c r="I68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:9">
+      <c r="J68" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69">
         <v>67</v>
       </c>
@@ -3387,8 +4323,17 @@
       <c r="I69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:9">
+      <c r="J69" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70">
         <v>68</v>
       </c>
@@ -3416,8 +4361,17 @@
       <c r="I70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:9">
+      <c r="J70" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71">
         <v>69</v>
       </c>
@@ -3445,8 +4399,17 @@
       <c r="I71">
         <v>90</v>
       </c>
-    </row>
-    <row r="72" spans="1:9">
+      <c r="J71" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72">
         <v>70</v>
       </c>
@@ -3474,8 +4437,17 @@
       <c r="I72">
         <v>90</v>
       </c>
-    </row>
-    <row r="73" spans="1:9">
+      <c r="J72" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73">
         <v>71</v>
       </c>
@@ -3503,8 +4475,17 @@
       <c r="I73">
         <v>90</v>
       </c>
-    </row>
-    <row r="74" spans="1:9">
+      <c r="J73" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74">
         <v>72</v>
       </c>
@@ -3532,8 +4513,17 @@
       <c r="I74">
         <v>92</v>
       </c>
-    </row>
-    <row r="75" spans="1:9">
+      <c r="J74" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L74" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75">
         <v>73</v>
       </c>
@@ -3561,8 +4551,17 @@
       <c r="I75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:9">
+      <c r="J75" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76">
         <v>74</v>
       </c>
@@ -3590,8 +4589,17 @@
       <c r="I76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:9">
+      <c r="J76" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L76" s="6">
+        <v>88100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77">
         <v>75</v>
       </c>
@@ -3619,8 +4627,17 @@
       <c r="I77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:9">
+      <c r="J77" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78">
         <v>76</v>
       </c>
@@ -3648,8 +4665,17 @@
       <c r="I78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:9">
+      <c r="J78" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L78" s="6">
+        <v>88100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79">
         <v>77</v>
       </c>
@@ -3677,8 +4703,17 @@
       <c r="I79">
         <v>90</v>
       </c>
-    </row>
-    <row r="80" spans="1:9">
+      <c r="J79" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L79" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80">
         <v>78</v>
       </c>
@@ -3706,8 +4741,17 @@
       <c r="I80">
         <v>95</v>
       </c>
-    </row>
-    <row r="81" spans="1:9">
+      <c r="J80" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="L80" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81">
         <v>79</v>
       </c>
@@ -3735,8 +4779,17 @@
       <c r="I81">
         <v>90</v>
       </c>
-    </row>
-    <row r="82" spans="1:9">
+      <c r="J81" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L81" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82">
         <v>80</v>
       </c>
@@ -3764,8 +4817,17 @@
       <c r="I82">
         <v>95</v>
       </c>
-    </row>
-    <row r="83" spans="1:9">
+      <c r="J82" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="L82" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83">
         <v>81</v>
       </c>
@@ -3793,8 +4855,17 @@
       <c r="I83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:9">
+      <c r="J83" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="L83" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84">
         <v>82</v>
       </c>
@@ -3822,8 +4893,17 @@
       <c r="I84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:9">
+      <c r="J84" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="L84" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85">
         <v>83</v>
       </c>
@@ -3851,8 +4931,17 @@
       <c r="I85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:9">
+      <c r="J85" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="L85" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86">
         <v>84</v>
       </c>
@@ -3880,8 +4969,17 @@
       <c r="I86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:9">
+      <c r="J86" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="L86" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87">
         <v>85</v>
       </c>
@@ -3909,8 +5007,17 @@
       <c r="I87">
         <v>92</v>
       </c>
-    </row>
-    <row r="88" spans="1:9">
+      <c r="J87" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L87" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88">
         <v>86</v>
       </c>
@@ -3938,8 +5045,17 @@
       <c r="I88">
         <v>95</v>
       </c>
-    </row>
-    <row r="89" spans="1:9">
+      <c r="J88" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="L88" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89">
         <v>87</v>
       </c>
@@ -3967,8 +5083,17 @@
       <c r="I89">
         <v>95</v>
       </c>
-    </row>
-    <row r="90" spans="1:9">
+      <c r="J89" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="L89" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90">
         <v>88</v>
       </c>
@@ -3996,8 +5121,17 @@
       <c r="I90">
         <v>98</v>
       </c>
-    </row>
-    <row r="91" spans="1:9">
+      <c r="J90" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="L90" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91">
         <v>89</v>
       </c>
@@ -4025,8 +5159,17 @@
       <c r="I91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:9">
+      <c r="J91" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K91" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="L91" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92">
         <v>90</v>
       </c>
@@ -4054,8 +5197,17 @@
       <c r="I92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:9">
+      <c r="J92" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L92" s="6">
+        <v>88100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93">
         <v>91</v>
       </c>
@@ -4083,8 +5235,17 @@
       <c r="I93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:9">
+      <c r="J93" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L93" s="6">
+        <v>88100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94">
         <v>92</v>
       </c>
@@ -4112,8 +5273,17 @@
       <c r="I94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:9">
+      <c r="J94" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K94" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L94" s="6">
+        <v>88100</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95">
         <v>93</v>
       </c>
@@ -4141,8 +5311,17 @@
       <c r="I95">
         <v>95</v>
       </c>
-    </row>
-    <row r="96" spans="1:9">
+      <c r="J95" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K95" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="L95" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96">
         <v>94</v>
       </c>
@@ -4170,8 +5349,17 @@
       <c r="I96">
         <v>98</v>
       </c>
-    </row>
-    <row r="97" spans="1:9">
+      <c r="J96" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K96" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="L96" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97">
         <v>95</v>
       </c>
@@ -4199,8 +5387,17 @@
       <c r="I97">
         <v>95</v>
       </c>
-    </row>
-    <row r="98" spans="1:9">
+      <c r="J97" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="L97" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98">
         <v>96</v>
       </c>
@@ -4228,8 +5425,17 @@
       <c r="I98">
         <v>100</v>
       </c>
-    </row>
-    <row r="99" spans="1:9">
+      <c r="J98" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K98" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L98" s="6">
+        <v>88100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99">
         <v>97</v>
       </c>
@@ -4257,8 +5463,17 @@
       <c r="I99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:9">
+      <c r="J99" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K99" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="L99" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100">
         <v>98</v>
       </c>
@@ -4286,8 +5501,17 @@
       <c r="I100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:9">
+      <c r="J100" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K100" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L100" s="6">
+        <v>90105</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101">
         <v>99</v>
       </c>
@@ -4315,8 +5539,17 @@
       <c r="I101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:9">
+      <c r="J101" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K101" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="L101" s="6">
+        <v>90110</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102">
         <v>100</v>
       </c>
@@ -4344,8 +5577,17 @@
       <c r="I102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:9">
+      <c r="J102" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K102" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="L102" s="6">
+        <v>90110</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103">
         <v>101</v>
       </c>
@@ -4373,8 +5615,17 @@
       <c r="I103">
         <v>95</v>
       </c>
-    </row>
-    <row r="104" spans="1:9">
+      <c r="J103" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K103" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="L103" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104">
         <v>102</v>
       </c>
@@ -4402,8 +5653,17 @@
       <c r="I104">
         <v>98</v>
       </c>
-    </row>
-    <row r="105" spans="1:9">
+      <c r="J104" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K104" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="L104" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
       <c r="A105">
         <v>103</v>
       </c>
@@ -4431,8 +5691,17 @@
       <c r="I105">
         <v>98</v>
       </c>
-    </row>
-    <row r="106" spans="1:9">
+      <c r="J105" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K105" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="L105" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
       <c r="A106">
         <v>104</v>
       </c>
@@ -4460,8 +5729,17 @@
       <c r="I106">
         <v>100</v>
       </c>
-    </row>
-    <row r="107" spans="1:9">
+      <c r="J106" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K106" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L106" s="6">
+        <v>88100</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
       <c r="A107">
         <v>105</v>
       </c>
@@ -4489,8 +5767,17 @@
       <c r="I107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:9">
+      <c r="J107" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K107" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="L107" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12">
       <c r="A108">
         <v>106</v>
       </c>
@@ -4518,8 +5805,17 @@
       <c r="I108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:9">
+      <c r="J108" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K108" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="L108" s="6">
+        <v>90110</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12">
       <c r="A109">
         <v>107</v>
       </c>
@@ -4547,8 +5843,17 @@
       <c r="I109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:9">
+      <c r="J109" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K109" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L109" s="6">
+        <v>88100</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
       <c r="A110">
         <v>108</v>
       </c>
@@ -4576,8 +5881,17 @@
       <c r="I110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:9">
+      <c r="J110" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K110" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="L110" s="6">
+        <v>90110</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12">
       <c r="A111">
         <v>109</v>
       </c>
@@ -4605,8 +5919,17 @@
       <c r="I111">
         <v>95</v>
       </c>
-    </row>
-    <row r="112" spans="1:9">
+      <c r="J111" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K111" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="L111" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
       <c r="A112">
         <v>110</v>
       </c>
@@ -4634,8 +5957,17 @@
       <c r="I112">
         <v>105</v>
       </c>
-    </row>
-    <row r="113" spans="1:9">
+      <c r="J112" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K112" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L112" s="6">
+        <v>90105</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12">
       <c r="A113">
         <v>111</v>
       </c>
@@ -4663,8 +5995,17 @@
       <c r="I113">
         <v>110</v>
       </c>
-    </row>
-    <row r="114" spans="1:9">
+      <c r="J113" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K113" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="L113" s="6">
+        <v>90110</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12">
       <c r="A114">
         <v>112</v>
       </c>
@@ -4692,8 +6033,17 @@
       <c r="I114">
         <v>130</v>
       </c>
-    </row>
-    <row r="115" spans="1:9">
+      <c r="J114" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="K114" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="L114" s="6">
+        <v>110130</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12">
       <c r="A115">
         <v>113</v>
       </c>
@@ -4721,8 +6071,17 @@
       <c r="I115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:9">
+      <c r="J115" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K115" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="L115" s="6">
+        <v>90110</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12">
       <c r="A116">
         <v>114</v>
       </c>
@@ -4750,8 +6109,17 @@
       <c r="I116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:9">
+      <c r="J116" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="K116" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="L116" s="6">
+        <v>110130</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
       <c r="A117">
         <v>115</v>
       </c>
@@ -4779,8 +6147,17 @@
       <c r="I117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:9">
+      <c r="J117" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K117" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="L117" s="6">
+        <v>90110</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12">
       <c r="A118">
         <v>116</v>
       </c>
@@ -4808,8 +6185,17 @@
       <c r="I118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:9">
+      <c r="J118" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="K118" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="L118" s="9">
+        <v>104120</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
       <c r="A119">
         <v>117</v>
       </c>
@@ -4837,8 +6223,17 @@
       <c r="I119">
         <v>100</v>
       </c>
-    </row>
-    <row r="120" spans="1:9">
+      <c r="J119" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K119" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L119" s="6">
+        <v>88100</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12">
       <c r="A120">
         <v>118</v>
       </c>
@@ -4866,8 +6261,17 @@
       <c r="I120">
         <v>120</v>
       </c>
-    </row>
-    <row r="121" spans="1:9">
+      <c r="J120" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="K120" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="L120" s="9">
+        <v>104120</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12">
       <c r="A121">
         <v>119</v>
       </c>
@@ -4895,8 +6299,17 @@
       <c r="I121">
         <v>125</v>
       </c>
-    </row>
-    <row r="122" spans="1:9">
+      <c r="J121" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K121" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="L121" s="9">
+        <v>104125</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12">
       <c r="A122">
         <v>120</v>
       </c>
@@ -4923,6 +6336,15 @@
       </c>
       <c r="I122">
         <v>130</v>
+      </c>
+      <c r="J122" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="K122" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="L122" s="6">
+        <v>110130</v>
       </c>
     </row>
   </sheetData>
@@ -4934,6 +6356,9 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <ignoredErrors>
+    <ignoredError sqref="K118 K116 K114 K120 K121:K122" numberStoredAsText="1"/>
+  </ignoredErrors>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>

--- a/game_config/challenge_config.xlsx
+++ b/game_config/challenge_config.xlsx
@@ -17,10 +17,33 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>Admin</author>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0">
+    <comment ref="A2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+关卡</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -42,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0">
+    <comment ref="C2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -64,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0">
+    <comment ref="D2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -86,7 +109,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0">
+    <comment ref="E2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -108,7 +131,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0">
+    <comment ref="F2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -130,7 +153,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0">
+    <comment ref="G2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -152,7 +175,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0">
+    <comment ref="H2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -174,7 +197,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0">
+    <comment ref="I2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -192,7 +215,73 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-描述</t>
+秒数</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+三星</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+两星</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+一星</t>
         </r>
       </text>
     </comment>
@@ -733,11 +822,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -763,9 +852,46 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -781,104 +907,6 @@
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -898,9 +926,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -926,19 +1015,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -962,19 +1087,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -986,25 +1111,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1016,37 +1147,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1064,49 +1165,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1117,6 +1206,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1140,54 +1253,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1217,6 +1282,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1225,10 +1314,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1237,133 +1326,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1720,9 +1809,9 @@
   <dimension ref="A1:M122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F126" sqref="F126"/>
+      <selection pane="bottomLeft" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1816,13 +1905,13 @@
         <v>0</v>
       </c>
       <c r="J3" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K3" s="2">
         <v>2</v>
       </c>
       <c r="L3" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -5744,27 +5833,35 @@
         <v>105</v>
       </c>
       <c r="B107">
+        <f>VLOOKUP($A107,Sheet2!$A$1:$I$16,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C107">
+        <f>VLOOKUP($A107,Sheet2!$A$1:$I$16,3,FALSE)</f>
         <v>70</v>
       </c>
       <c r="D107">
+        <f>VLOOKUP($A107,Sheet2!$A$1:$I$16,4,FALSE)</f>
         <v>70</v>
       </c>
       <c r="E107">
+        <f>VLOOKUP($A107,Sheet2!$A$1:$I$16,5,FALSE)</f>
         <v>70</v>
       </c>
       <c r="F107">
+        <f>VLOOKUP($A107,Sheet2!$A$1:$I$16,6,FALSE)</f>
         <v>70</v>
       </c>
       <c r="G107">
+        <f>VLOOKUP($A107,Sheet2!$A$1:$I$16,7,FALSE)</f>
         <v>0</v>
       </c>
       <c r="H107">
+        <f>VLOOKUP($A107,Sheet2!$A$1:$I$16,8,FALSE)</f>
         <v>98</v>
       </c>
       <c r="I107">
+        <f>VLOOKUP($A107,Sheet2!$A$1:$I$16,9,FALSE)</f>
         <v>0</v>
       </c>
       <c r="J107" s="2" t="s">
@@ -5782,27 +5879,35 @@
         <v>106</v>
       </c>
       <c r="B108">
+        <f>VLOOKUP($A108,Sheet2!$A$1:$I$16,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C108">
+        <f>VLOOKUP($A108,Sheet2!$A$1:$I$16,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="D108">
+        <f>VLOOKUP($A108,Sheet2!$A$1:$I$16,4,FALSE)</f>
         <v>60</v>
       </c>
       <c r="E108">
+        <f>VLOOKUP($A108,Sheet2!$A$1:$I$16,5,FALSE)</f>
         <v>80</v>
       </c>
       <c r="F108">
+        <f>VLOOKUP($A108,Sheet2!$A$1:$I$16,6,FALSE)</f>
         <v>80</v>
       </c>
       <c r="G108">
+        <f>VLOOKUP($A108,Sheet2!$A$1:$I$16,7,FALSE)</f>
         <v>10000</v>
       </c>
       <c r="H108">
+        <f>VLOOKUP($A108,Sheet2!$A$1:$I$16,8,FALSE)</f>
         <v>110</v>
       </c>
       <c r="I108">
+        <f>VLOOKUP($A108,Sheet2!$A$1:$I$16,9,FALSE)</f>
         <v>0</v>
       </c>
       <c r="J108" s="2" t="s">
@@ -5820,27 +5925,35 @@
         <v>107</v>
       </c>
       <c r="B109">
+        <f>VLOOKUP($A109,Sheet2!$A$1:$I$16,2,FALSE)</f>
         <v>90</v>
       </c>
       <c r="C109">
+        <f>VLOOKUP($A109,Sheet2!$A$1:$I$16,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="D109">
+        <f>VLOOKUP($A109,Sheet2!$A$1:$I$16,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E109">
+        <f>VLOOKUP($A109,Sheet2!$A$1:$I$16,5,FALSE)</f>
         <v>100</v>
       </c>
       <c r="F109">
+        <f>VLOOKUP($A109,Sheet2!$A$1:$I$16,6,FALSE)</f>
         <v>110</v>
       </c>
       <c r="G109">
+        <f>VLOOKUP($A109,Sheet2!$A$1:$I$16,7,FALSE)</f>
         <v>0</v>
       </c>
       <c r="H109">
+        <f>VLOOKUP($A109,Sheet2!$A$1:$I$16,8,FALSE)</f>
         <v>100</v>
       </c>
       <c r="I109">
+        <f>VLOOKUP($A109,Sheet2!$A$1:$I$16,9,FALSE)</f>
         <v>0</v>
       </c>
       <c r="J109" s="2" t="s">
@@ -5858,27 +5971,35 @@
         <v>108</v>
       </c>
       <c r="B110">
+        <f>VLOOKUP($A110,Sheet2!$A$1:$I$16,2,FALSE)</f>
         <v>80</v>
       </c>
       <c r="C110">
+        <f>VLOOKUP($A110,Sheet2!$A$1:$I$16,3,FALSE)</f>
         <v>90</v>
       </c>
       <c r="D110">
+        <f>VLOOKUP($A110,Sheet2!$A$1:$I$16,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E110">
+        <f>VLOOKUP($A110,Sheet2!$A$1:$I$16,5,FALSE)</f>
         <v>0</v>
       </c>
       <c r="F110">
+        <f>VLOOKUP($A110,Sheet2!$A$1:$I$16,6,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G110">
+        <f>VLOOKUP($A110,Sheet2!$A$1:$I$16,7,FALSE)</f>
         <v>11000</v>
       </c>
       <c r="H110">
+        <f>VLOOKUP($A110,Sheet2!$A$1:$I$16,8,FALSE)</f>
         <v>110</v>
       </c>
       <c r="I110">
+        <f>VLOOKUP($A110,Sheet2!$A$1:$I$16,9,FALSE)</f>
         <v>0</v>
       </c>
       <c r="J110" s="2" t="s">
@@ -5896,27 +6017,35 @@
         <v>109</v>
       </c>
       <c r="B111">
+        <f>VLOOKUP($A111,Sheet2!$A$1:$I$16,2,FALSE)</f>
         <v>90</v>
       </c>
       <c r="C111">
+        <f>VLOOKUP($A111,Sheet2!$A$1:$I$16,3,FALSE)</f>
         <v>70</v>
       </c>
       <c r="D111">
+        <f>VLOOKUP($A111,Sheet2!$A$1:$I$16,4,FALSE)</f>
         <v>70</v>
       </c>
       <c r="E111">
+        <f>VLOOKUP($A111,Sheet2!$A$1:$I$16,5,FALSE)</f>
         <v>0</v>
       </c>
       <c r="F111">
+        <f>VLOOKUP($A111,Sheet2!$A$1:$I$16,6,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G111">
+        <f>VLOOKUP($A111,Sheet2!$A$1:$I$16,7,FALSE)</f>
         <v>0</v>
       </c>
       <c r="H111">
+        <f>VLOOKUP($A111,Sheet2!$A$1:$I$16,8,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I111">
+        <f>VLOOKUP($A111,Sheet2!$A$1:$I$16,9,FALSE)</f>
         <v>95</v>
       </c>
       <c r="J111" s="2" t="s">
@@ -5934,27 +6063,35 @@
         <v>110</v>
       </c>
       <c r="B112">
+        <f>VLOOKUP($A112,Sheet2!$A$1:$I$16,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C112">
+        <f>VLOOKUP($A112,Sheet2!$A$1:$I$16,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="D112">
+        <f>VLOOKUP($A112,Sheet2!$A$1:$I$16,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E112">
+        <f>VLOOKUP($A112,Sheet2!$A$1:$I$16,5,FALSE)</f>
         <v>70</v>
       </c>
       <c r="F112">
+        <f>VLOOKUP($A112,Sheet2!$A$1:$I$16,6,FALSE)</f>
         <v>80</v>
       </c>
       <c r="G112">
+        <f>VLOOKUP($A112,Sheet2!$A$1:$I$16,7,FALSE)</f>
         <v>11000</v>
       </c>
       <c r="H112">
+        <f>VLOOKUP($A112,Sheet2!$A$1:$I$16,8,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I112">
+        <f>VLOOKUP($A112,Sheet2!$A$1:$I$16,9,FALSE)</f>
         <v>105</v>
       </c>
       <c r="J112" s="2" t="s">
@@ -5972,27 +6109,35 @@
         <v>111</v>
       </c>
       <c r="B113">
+        <f>VLOOKUP($A113,Sheet2!$A$1:$I$16,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C113">
+        <f>VLOOKUP($A113,Sheet2!$A$1:$I$16,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="D113">
+        <f>VLOOKUP($A113,Sheet2!$A$1:$I$16,4,FALSE)</f>
         <v>100</v>
       </c>
       <c r="E113">
+        <f>VLOOKUP($A113,Sheet2!$A$1:$I$16,5,FALSE)</f>
         <v>90</v>
       </c>
       <c r="F113">
+        <f>VLOOKUP($A113,Sheet2!$A$1:$I$16,6,FALSE)</f>
         <v>90</v>
       </c>
       <c r="G113">
+        <f>VLOOKUP($A113,Sheet2!$A$1:$I$16,7,FALSE)</f>
         <v>0</v>
       </c>
       <c r="H113">
+        <f>VLOOKUP($A113,Sheet2!$A$1:$I$16,8,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I113">
+        <f>VLOOKUP($A113,Sheet2!$A$1:$I$16,9,FALSE)</f>
         <v>110</v>
       </c>
       <c r="J113" s="2" t="s">
@@ -6010,27 +6155,35 @@
         <v>112</v>
       </c>
       <c r="B114">
+        <f>VLOOKUP($A114,Sheet2!$A$1:$I$16,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C114">
+        <f>VLOOKUP($A114,Sheet2!$A$1:$I$16,3,FALSE)</f>
         <v>100</v>
       </c>
       <c r="D114">
+        <f>VLOOKUP($A114,Sheet2!$A$1:$I$16,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E114">
+        <f>VLOOKUP($A114,Sheet2!$A$1:$I$16,5,FALSE)</f>
         <v>0</v>
       </c>
       <c r="F114">
+        <f>VLOOKUP($A114,Sheet2!$A$1:$I$16,6,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G114">
+        <f>VLOOKUP($A114,Sheet2!$A$1:$I$16,7,FALSE)</f>
         <v>13000</v>
       </c>
       <c r="H114">
+        <f>VLOOKUP($A114,Sheet2!$A$1:$I$16,8,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I114">
+        <f>VLOOKUP($A114,Sheet2!$A$1:$I$16,9,FALSE)</f>
         <v>130</v>
       </c>
       <c r="J114" s="2" t="s">
@@ -6048,27 +6201,35 @@
         <v>113</v>
       </c>
       <c r="B115">
+        <f>VLOOKUP($A115,Sheet2!$A$1:$I$16,2,FALSE)</f>
         <v>80</v>
       </c>
       <c r="C115">
+        <f>VLOOKUP($A115,Sheet2!$A$1:$I$16,3,FALSE)</f>
         <v>90</v>
       </c>
       <c r="D115">
+        <f>VLOOKUP($A115,Sheet2!$A$1:$I$16,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E115">
+        <f>VLOOKUP($A115,Sheet2!$A$1:$I$16,5,FALSE)</f>
         <v>0</v>
       </c>
       <c r="F115">
+        <f>VLOOKUP($A115,Sheet2!$A$1:$I$16,6,FALSE)</f>
         <v>100</v>
       </c>
       <c r="G115">
+        <f>VLOOKUP($A115,Sheet2!$A$1:$I$16,7,FALSE)</f>
         <v>0</v>
       </c>
       <c r="H115">
+        <f>VLOOKUP($A115,Sheet2!$A$1:$I$16,8,FALSE)</f>
         <v>110</v>
       </c>
       <c r="I115">
+        <f>VLOOKUP($A115,Sheet2!$A$1:$I$16,9,FALSE)</f>
         <v>0</v>
       </c>
       <c r="J115" s="2" t="s">
@@ -6086,27 +6247,35 @@
         <v>114</v>
       </c>
       <c r="B116">
+        <f>VLOOKUP($A116,Sheet2!$A$1:$I$16,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C116">
+        <f>VLOOKUP($A116,Sheet2!$A$1:$I$16,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="D116">
+        <f>VLOOKUP($A116,Sheet2!$A$1:$I$16,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E116">
+        <f>VLOOKUP($A116,Sheet2!$A$1:$I$16,5,FALSE)</f>
         <v>0</v>
       </c>
       <c r="F116">
+        <f>VLOOKUP($A116,Sheet2!$A$1:$I$16,6,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G116">
+        <f>VLOOKUP($A116,Sheet2!$A$1:$I$16,7,FALSE)</f>
         <v>13000</v>
       </c>
       <c r="H116">
+        <f>VLOOKUP($A116,Sheet2!$A$1:$I$16,8,FALSE)</f>
         <v>130</v>
       </c>
       <c r="I116">
+        <f>VLOOKUP($A116,Sheet2!$A$1:$I$16,9,FALSE)</f>
         <v>0</v>
       </c>
       <c r="J116" s="2" t="s">
@@ -6124,27 +6293,35 @@
         <v>115</v>
       </c>
       <c r="B117">
+        <f>VLOOKUP($A117,Sheet2!$A$1:$I$16,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C117">
+        <f>VLOOKUP($A117,Sheet2!$A$1:$I$16,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="D117">
+        <f>VLOOKUP($A117,Sheet2!$A$1:$I$16,4,FALSE)</f>
         <v>90</v>
       </c>
       <c r="E117">
+        <f>VLOOKUP($A117,Sheet2!$A$1:$I$16,5,FALSE)</f>
         <v>100</v>
       </c>
       <c r="F117">
+        <f>VLOOKUP($A117,Sheet2!$A$1:$I$16,6,FALSE)</f>
         <v>100</v>
       </c>
       <c r="G117">
+        <f>VLOOKUP($A117,Sheet2!$A$1:$I$16,7,FALSE)</f>
         <v>0</v>
       </c>
       <c r="H117">
+        <f>VLOOKUP($A117,Sheet2!$A$1:$I$16,8,FALSE)</f>
         <v>110</v>
       </c>
       <c r="I117">
+        <f>VLOOKUP($A117,Sheet2!$A$1:$I$16,9,FALSE)</f>
         <v>0</v>
       </c>
       <c r="J117" s="2" t="s">
@@ -6162,27 +6339,35 @@
         <v>116</v>
       </c>
       <c r="B118">
+        <f>VLOOKUP($A118,Sheet2!$A$1:$I$16,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C118">
+        <f>VLOOKUP($A118,Sheet2!$A$1:$I$16,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="D118">
+        <f>VLOOKUP($A118,Sheet2!$A$1:$I$16,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E118">
+        <f>VLOOKUP($A118,Sheet2!$A$1:$I$16,5,FALSE)</f>
         <v>80</v>
       </c>
       <c r="F118">
+        <f>VLOOKUP($A118,Sheet2!$A$1:$I$16,6,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G118">
+        <f>VLOOKUP($A118,Sheet2!$A$1:$I$16,7,FALSE)</f>
         <v>14000</v>
       </c>
       <c r="H118">
+        <f>VLOOKUP($A118,Sheet2!$A$1:$I$16,8,FALSE)</f>
         <v>120</v>
       </c>
       <c r="I118">
+        <f>VLOOKUP($A118,Sheet2!$A$1:$I$16,9,FALSE)</f>
         <v>0</v>
       </c>
       <c r="J118" s="2" t="s">
@@ -6200,27 +6385,35 @@
         <v>117</v>
       </c>
       <c r="B119">
+        <f>VLOOKUP($A119,Sheet2!$A$1:$I$16,2,FALSE)</f>
         <v>50</v>
       </c>
       <c r="C119">
+        <f>VLOOKUP($A119,Sheet2!$A$1:$I$16,3,FALSE)</f>
         <v>60</v>
       </c>
       <c r="D119">
+        <f>VLOOKUP($A119,Sheet2!$A$1:$I$16,4,FALSE)</f>
         <v>50</v>
       </c>
       <c r="E119">
+        <f>VLOOKUP($A119,Sheet2!$A$1:$I$16,5,FALSE)</f>
         <v>60</v>
       </c>
       <c r="F119">
+        <f>VLOOKUP($A119,Sheet2!$A$1:$I$16,6,FALSE)</f>
         <v>60</v>
       </c>
       <c r="G119">
+        <f>VLOOKUP($A119,Sheet2!$A$1:$I$16,7,FALSE)</f>
         <v>0</v>
       </c>
       <c r="H119">
+        <f>VLOOKUP($A119,Sheet2!$A$1:$I$16,8,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I119">
+        <f>VLOOKUP($A119,Sheet2!$A$1:$I$16,9,FALSE)</f>
         <v>100</v>
       </c>
       <c r="J119" s="2" t="s">
@@ -6238,27 +6431,35 @@
         <v>118</v>
       </c>
       <c r="B120">
+        <f>VLOOKUP($A120,Sheet2!$A$1:$I$16,2,FALSE)</f>
         <v>90</v>
       </c>
       <c r="C120">
+        <f>VLOOKUP($A120,Sheet2!$A$1:$I$16,3,FALSE)</f>
         <v>90</v>
       </c>
       <c r="D120">
+        <f>VLOOKUP($A120,Sheet2!$A$1:$I$16,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E120">
+        <f>VLOOKUP($A120,Sheet2!$A$1:$I$16,5,FALSE)</f>
         <v>0</v>
       </c>
       <c r="F120">
+        <f>VLOOKUP($A120,Sheet2!$A$1:$I$16,6,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G120">
+        <f>VLOOKUP($A120,Sheet2!$A$1:$I$16,7,FALSE)</f>
         <v>13000</v>
       </c>
       <c r="H120">
+        <f>VLOOKUP($A120,Sheet2!$A$1:$I$16,8,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I120">
+        <f>VLOOKUP($A120,Sheet2!$A$1:$I$16,9,FALSE)</f>
         <v>120</v>
       </c>
       <c r="J120" s="2" t="s">
@@ -6276,27 +6477,35 @@
         <v>119</v>
       </c>
       <c r="B121">
+        <f>VLOOKUP($A121,Sheet2!$A$1:$I$16,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C121">
+        <f>VLOOKUP($A121,Sheet2!$A$1:$I$16,3,FALSE)</f>
         <v>80</v>
       </c>
       <c r="D121">
+        <f>VLOOKUP($A121,Sheet2!$A$1:$I$16,4,FALSE)</f>
         <v>90</v>
       </c>
       <c r="E121">
+        <f>VLOOKUP($A121,Sheet2!$A$1:$I$16,5,FALSE)</f>
         <v>90</v>
       </c>
       <c r="F121">
+        <f>VLOOKUP($A121,Sheet2!$A$1:$I$16,6,FALSE)</f>
         <v>80</v>
       </c>
       <c r="G121">
+        <f>VLOOKUP($A121,Sheet2!$A$1:$I$16,7,FALSE)</f>
         <v>0</v>
       </c>
       <c r="H121">
+        <f>VLOOKUP($A121,Sheet2!$A$1:$I$16,8,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I121">
+        <f>VLOOKUP($A121,Sheet2!$A$1:$I$16,9,FALSE)</f>
         <v>125</v>
       </c>
       <c r="J121" s="2" t="s">
@@ -6357,7 +6566,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="K118 K116 K114 K120 K121:K122" numberStoredAsText="1"/>
+    <ignoredError sqref="K121:K122 K120 K114 K116 K118" numberStoredAsText="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
@@ -6369,7 +6578,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="A2:I17"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
